--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Efna4-Epha7.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Efna4-Epha7.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G2">
+        <v>0.2988413333333333</v>
+      </c>
+      <c r="H2">
+        <v>0.896524</v>
+      </c>
+      <c r="I2">
+        <v>0.3632971504731247</v>
+      </c>
+      <c r="J2">
+        <v>0.3632971504731246</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2">
         <v>1</v>
       </c>
-      <c r="F2">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G2">
-        <v>0.231004</v>
-      </c>
-      <c r="H2">
-        <v>0.693012</v>
-      </c>
-      <c r="I2">
-        <v>0.3060694778933775</v>
-      </c>
-      <c r="J2">
-        <v>0.3060694778933775</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M2">
-        <v>0.1532026666666667</v>
+        <v>0.1944653333333334</v>
       </c>
       <c r="N2">
-        <v>0.459608</v>
+        <v>0.583396</v>
       </c>
       <c r="O2">
-        <v>0.03935316038222934</v>
+        <v>0.04942840076761122</v>
       </c>
       <c r="P2">
-        <v>0.03935316038222934</v>
+        <v>0.04942840076761121</v>
       </c>
       <c r="Q2">
-        <v>0.03539042881066667</v>
+        <v>0.05811427950044445</v>
       </c>
       <c r="R2">
-        <v>0.318513859296</v>
+        <v>0.523028515504</v>
       </c>
       <c r="S2">
-        <v>0.01204480125164328</v>
+        <v>0.01795719715131677</v>
       </c>
       <c r="T2">
-        <v>0.01204480125164328</v>
+        <v>0.01795719715131676</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.231004</v>
+        <v>0.2988413333333333</v>
       </c>
       <c r="H3">
-        <v>0.693012</v>
+        <v>0.896524</v>
       </c>
       <c r="I3">
-        <v>0.3060694778933775</v>
+        <v>0.3632971504731247</v>
       </c>
       <c r="J3">
-        <v>0.3060694778933775</v>
+        <v>0.3632971504731246</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>0.50807</v>
       </c>
       <c r="O3">
-        <v>0.04350263745496</v>
+        <v>0.04304638286515546</v>
       </c>
       <c r="P3">
-        <v>0.04350263745496</v>
+        <v>0.04304638286515546</v>
       </c>
       <c r="Q3">
-        <v>0.03912206742666667</v>
+        <v>0.05061077207555556</v>
       </c>
       <c r="R3">
-        <v>0.35209860684</v>
+        <v>0.45549694868</v>
       </c>
       <c r="S3">
-        <v>0.0133148295328245</v>
+        <v>0.01563862823308612</v>
       </c>
       <c r="T3">
-        <v>0.01331482953282449</v>
+        <v>0.01563862823308611</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.231004</v>
+        <v>0.2988413333333333</v>
       </c>
       <c r="H4">
-        <v>0.693012</v>
+        <v>0.896524</v>
       </c>
       <c r="I4">
-        <v>0.3060694778933775</v>
+        <v>0.3632971504731247</v>
       </c>
       <c r="J4">
-        <v>0.3060694778933775</v>
+        <v>0.3632971504731246</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>10.711384</v>
       </c>
       <c r="O4">
-        <v>0.9171442021628107</v>
+        <v>0.9075252163672334</v>
       </c>
       <c r="P4">
-        <v>0.9171442021628107</v>
+        <v>0.9075252163672333</v>
       </c>
       <c r="Q4">
-        <v>0.8247908498453331</v>
+        <v>1.067001425468444</v>
       </c>
       <c r="R4">
-        <v>7.423117648607999</v>
+        <v>9.603012829215999</v>
       </c>
       <c r="S4">
-        <v>0.2807098471089097</v>
+        <v>0.3297013250887218</v>
       </c>
       <c r="T4">
-        <v>0.2807098471089097</v>
+        <v>0.3297013250887217</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>1.155575</v>
       </c>
       <c r="I5">
-        <v>0.5103609128220575</v>
+        <v>0.4682720202225272</v>
       </c>
       <c r="J5">
-        <v>0.5103609128220574</v>
+        <v>0.4682720202225272</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1532026666666667</v>
+        <v>0.1944653333333334</v>
       </c>
       <c r="N5">
-        <v>0.459608</v>
+        <v>0.583396</v>
       </c>
       <c r="O5">
-        <v>0.03935316038222934</v>
+        <v>0.04942840076761122</v>
       </c>
       <c r="P5">
-        <v>0.03935316038222934</v>
+        <v>0.04942840076761121</v>
       </c>
       <c r="Q5">
-        <v>0.05901239051111112</v>
+        <v>0.07490642585555556</v>
       </c>
       <c r="R5">
-        <v>0.5311115146000001</v>
+        <v>0.6741578327000001</v>
       </c>
       <c r="S5">
-        <v>0.02008431485510739</v>
+        <v>0.02314593708381802</v>
       </c>
       <c r="T5">
-        <v>0.02008431485510739</v>
+        <v>0.02314593708381802</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1.155575</v>
       </c>
       <c r="I6">
-        <v>0.5103609128220575</v>
+        <v>0.4682720202225272</v>
       </c>
       <c r="J6">
-        <v>0.5103609128220574</v>
+        <v>0.4682720202225272</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>0.50807</v>
       </c>
       <c r="O6">
-        <v>0.04350263745496</v>
+        <v>0.04304638286515546</v>
       </c>
       <c r="P6">
-        <v>0.04350263745496</v>
+        <v>0.04304638286515546</v>
       </c>
       <c r="Q6">
         <v>0.06523477669444445</v>
@@ -818,10 +818,10 @@
         <v>0.5871129902500001</v>
       </c>
       <c r="S6">
-        <v>0.02220204576168042</v>
+        <v>0.02015741666753873</v>
       </c>
       <c r="T6">
-        <v>0.02220204576168041</v>
+        <v>0.02015741666753873</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1.155575</v>
       </c>
       <c r="I7">
-        <v>0.5103609128220575</v>
+        <v>0.4682720202225272</v>
       </c>
       <c r="J7">
-        <v>0.5103609128220574</v>
+        <v>0.4682720202225272</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>10.711384</v>
       </c>
       <c r="O7">
-        <v>0.9171442021628107</v>
+        <v>0.9075252163672334</v>
       </c>
       <c r="P7">
-        <v>0.9171442021628107</v>
+        <v>0.9075252163672333</v>
       </c>
       <c r="Q7">
         <v>1.375311951755555</v>
@@ -880,10 +880,10 @@
         <v>12.3778075658</v>
       </c>
       <c r="S7">
-        <v>0.4680745522052697</v>
+        <v>0.4249686664711705</v>
       </c>
       <c r="T7">
-        <v>0.4680745522052696</v>
+        <v>0.4249686664711704</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,40 +912,40 @@
         <v>0.415644</v>
       </c>
       <c r="I8">
-        <v>0.183569609284565</v>
+        <v>0.1684308293043481</v>
       </c>
       <c r="J8">
-        <v>0.183569609284565</v>
+        <v>0.1684308293043481</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1532026666666667</v>
+        <v>0.1944653333333334</v>
       </c>
       <c r="N8">
-        <v>0.459608</v>
+        <v>0.583396</v>
       </c>
       <c r="O8">
-        <v>0.03935316038222934</v>
+        <v>0.04942840076761122</v>
       </c>
       <c r="P8">
-        <v>0.03935316038222934</v>
+        <v>0.04942840076761121</v>
       </c>
       <c r="Q8">
-        <v>0.02122592306133333</v>
+        <v>0.02694278300266667</v>
       </c>
       <c r="R8">
-        <v>0.191033307552</v>
+        <v>0.242485047024</v>
       </c>
       <c r="S8">
-        <v>0.007224044275478663</v>
+        <v>0.008325266532476436</v>
       </c>
       <c r="T8">
-        <v>0.007224044275478663</v>
+        <v>0.008325266532476434</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>0.415644</v>
       </c>
       <c r="I9">
-        <v>0.183569609284565</v>
+        <v>0.1684308293043481</v>
       </c>
       <c r="J9">
-        <v>0.183569609284565</v>
+        <v>0.1684308293043481</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>0.50807</v>
       </c>
       <c r="O9">
-        <v>0.04350263745496</v>
+        <v>0.04304638286515546</v>
       </c>
       <c r="P9">
-        <v>0.04350263745496</v>
+        <v>0.04304638286515546</v>
       </c>
       <c r="Q9">
-        <v>0.02346402745333333</v>
+        <v>0.02346402745333334</v>
       </c>
       <c r="R9">
         <v>0.21117624708</v>
       </c>
       <c r="S9">
-        <v>0.007985762160455092</v>
+        <v>0.007250337964530616</v>
       </c>
       <c r="T9">
-        <v>0.007985762160455092</v>
+        <v>0.007250337964530615</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>0.415644</v>
       </c>
       <c r="I10">
-        <v>0.183569609284565</v>
+        <v>0.1684308293043481</v>
       </c>
       <c r="J10">
-        <v>0.183569609284565</v>
+        <v>0.1684308293043481</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>10.711384</v>
       </c>
       <c r="O10">
-        <v>0.9171442021628107</v>
+        <v>0.9075252163672334</v>
       </c>
       <c r="P10">
-        <v>0.9171442021628107</v>
+        <v>0.9075252163672333</v>
       </c>
       <c r="Q10">
-        <v>0.4946802768106665</v>
+        <v>0.4946802768106666</v>
       </c>
       <c r="R10">
-        <v>4.452122491295999</v>
+        <v>4.452122491296</v>
       </c>
       <c r="S10">
-        <v>0.1683598028486313</v>
+        <v>0.1528552248073411</v>
       </c>
       <c r="T10">
-        <v>0.1683598028486313</v>
+        <v>0.1528552248073411</v>
       </c>
     </row>
   </sheetData>
